--- a/joy_journalling_trial_2025.xlsx
+++ b/joy_journalling_trial_2025.xlsx
@@ -8,20 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShanayaA(DA-LON14)\Desktop\pens_with_intention\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963082A4-66C3-4F10-A23D-104AA0A0C4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E9D7B6-DB88-4D05-A13A-510338E2BB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{E423C8AC-8376-41B4-864C-C3487EEF4363}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{E423C8AC-8376-41B4-864C-C3487EEF4363}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
     <sheet name=" Cleaned" sheetId="2" r:id="rId2"/>
+    <sheet name=" Cleaned (2)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="169">
   <si>
     <t>Order ID</t>
   </si>
@@ -4307,8 +4321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD43837-6CB0-4894-8012-688631B67159}">
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7227,4 +7241,2742 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29DE56D-D429-4F5A-9176-4882D57384E9}">
+  <dimension ref="A1:V45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" customWidth="1"/>
+    <col min="5" max="5" width="30.08984375" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="9" max="9" width="51.26953125" customWidth="1"/>
+    <col min="10" max="11" width="14.36328125" customWidth="1"/>
+    <col min="15" max="15" width="19.08984375" customWidth="1"/>
+    <col min="21" max="21" width="19.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>13379152993</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45930.529861111114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="2">
+        <v>45955</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>13379495283</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45930.570833333331</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="2">
+        <v>45955</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>13419329473</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45935.029166666667</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J4" s="2">
+        <v>45955</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>13445524953</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45938.662499999999</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5" s="2">
+        <v>45955</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>13494885253</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45944.82708333333</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>168</v>
+      </c>
+      <c r="J6" s="2">
+        <v>45955</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>13496226503</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45944.940972222219</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J7" s="2">
+        <v>45955</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>55</v>
+      </c>
+      <c r="S7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" t="s">
+        <v>57</v>
+      </c>
+      <c r="V7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>13565344263</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45953.431944444441</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J8" s="2">
+        <v>45955</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9">
+        <f>SUM(N4:N8)</f>
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>13381738233</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45930.767361111109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>168</v>
+      </c>
+      <c r="J10" s="2">
+        <v>45941</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>63</v>
+      </c>
+      <c r="S10" t="s">
+        <v>64</v>
+      </c>
+      <c r="T10" t="s">
+        <v>65</v>
+      </c>
+      <c r="V10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>13407883603</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45933.621527777781</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" s="2">
+        <v>45941</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>66</v>
+      </c>
+      <c r="S11" t="s">
+        <v>67</v>
+      </c>
+      <c r="T11" t="s">
+        <v>68</v>
+      </c>
+      <c r="V11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>13415452883</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45934.549305555556</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J12" s="2">
+        <v>45941</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>71</v>
+      </c>
+      <c r="S12" t="s">
+        <v>72</v>
+      </c>
+      <c r="T12" t="s">
+        <v>73</v>
+      </c>
+      <c r="V12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>13419317593</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45935.027083333334</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J13" s="2">
+        <v>45941</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" t="s">
+        <v>42</v>
+      </c>
+      <c r="V13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13443871993</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45938.48333333333</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>168</v>
+      </c>
+      <c r="J14" s="2">
+        <v>45941</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S14" t="s">
+        <v>77</v>
+      </c>
+      <c r="T14" t="s">
+        <v>78</v>
+      </c>
+      <c r="V14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13469283613</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45941.361111111109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" s="2">
+        <v>45941</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>79</v>
+      </c>
+      <c r="S15" t="s">
+        <v>80</v>
+      </c>
+      <c r="T15" t="s">
+        <v>81</v>
+      </c>
+      <c r="V15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N16">
+        <f>SUM(N10:N15)</f>
+        <v>6</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>13368058793</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45928.938888888886</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="2">
+        <v>45983</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>82</v>
+      </c>
+      <c r="S17" t="s">
+        <v>83</v>
+      </c>
+      <c r="T17" t="s">
+        <v>84</v>
+      </c>
+      <c r="V17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>13395119263</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45932.192361111112</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" s="2">
+        <v>45983</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>85</v>
+      </c>
+      <c r="S18" t="s">
+        <v>86</v>
+      </c>
+      <c r="T18" t="s">
+        <v>87</v>
+      </c>
+      <c r="V18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>13509471093</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45946.459027777775</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="2">
+        <v>45983</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>90</v>
+      </c>
+      <c r="S19" t="s">
+        <v>91</v>
+      </c>
+      <c r="T19" t="s">
+        <v>92</v>
+      </c>
+      <c r="V19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>13637734653</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45962.712500000001</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="2">
+        <v>45983</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>95</v>
+      </c>
+      <c r="S20" t="s">
+        <v>96</v>
+      </c>
+      <c r="T20" t="s">
+        <v>97</v>
+      </c>
+      <c r="V20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>13638194263</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45962.758333333331</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" s="2">
+        <v>45983</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>98</v>
+      </c>
+      <c r="S21" t="s">
+        <v>99</v>
+      </c>
+      <c r="T21" t="s">
+        <v>100</v>
+      </c>
+      <c r="V21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>13638251133</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45962.763888888891</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" s="2">
+        <v>45983</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
+        <v>103</v>
+      </c>
+      <c r="S22" t="s">
+        <v>104</v>
+      </c>
+      <c r="T22" t="s">
+        <v>105</v>
+      </c>
+      <c r="V22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>13639249843</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45962.882638888892</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>168</v>
+      </c>
+      <c r="J23" s="2">
+        <v>45983</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>108</v>
+      </c>
+      <c r="S23" t="s">
+        <v>109</v>
+      </c>
+      <c r="T23" t="s">
+        <v>110</v>
+      </c>
+      <c r="V23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>13639308643</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45962.890277777777</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>168</v>
+      </c>
+      <c r="J24" s="2">
+        <v>45983</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>111</v>
+      </c>
+      <c r="S24" t="s">
+        <v>112</v>
+      </c>
+      <c r="T24" t="s">
+        <v>113</v>
+      </c>
+      <c r="V24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>13639318833</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45962.890972222223</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" s="2">
+        <v>45983</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>114</v>
+      </c>
+      <c r="S25" t="s">
+        <v>115</v>
+      </c>
+      <c r="T25" t="s">
+        <v>116</v>
+      </c>
+      <c r="V25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>13639633863</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45962.933333333334</v>
+      </c>
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" s="2">
+        <v>45983</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
+        <v>117</v>
+      </c>
+      <c r="S26" t="s">
+        <v>118</v>
+      </c>
+      <c r="T26" t="s">
+        <v>119</v>
+      </c>
+      <c r="V26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>13639670103</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45962.938194444447</v>
+      </c>
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>168</v>
+      </c>
+      <c r="J27" s="2">
+        <v>45983</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27" t="s">
+        <v>120</v>
+      </c>
+      <c r="S27" t="s">
+        <v>121</v>
+      </c>
+      <c r="T27" t="s">
+        <v>122</v>
+      </c>
+      <c r="V27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>13641109033</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45963.228472222225</v>
+      </c>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>168</v>
+      </c>
+      <c r="J28" s="2">
+        <v>45983</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
+        <v>123</v>
+      </c>
+      <c r="S28" t="s">
+        <v>124</v>
+      </c>
+      <c r="T28" t="s">
+        <v>125</v>
+      </c>
+      <c r="V28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="N29">
+        <f>SUM(N17:N28)</f>
+        <v>12</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>13368051093</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45928.9375</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>168</v>
+      </c>
+      <c r="J30" s="2">
+        <v>45969</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30" t="s">
+        <v>82</v>
+      </c>
+      <c r="S30" t="s">
+        <v>83</v>
+      </c>
+      <c r="T30" t="s">
+        <v>84</v>
+      </c>
+      <c r="V30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>13496229853</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45944.940972222219</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>168</v>
+      </c>
+      <c r="J31" s="2">
+        <v>45969</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L31" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31" t="s">
+        <v>55</v>
+      </c>
+      <c r="S31" t="s">
+        <v>56</v>
+      </c>
+      <c r="T31" t="s">
+        <v>57</v>
+      </c>
+      <c r="V31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>13521023543</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45947.713888888888</v>
+      </c>
+      <c r="C32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J32" s="2">
+        <v>45969</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L32" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32" t="s">
+        <v>128</v>
+      </c>
+      <c r="S32" t="s">
+        <v>129</v>
+      </c>
+      <c r="T32" t="s">
+        <v>130</v>
+      </c>
+      <c r="V32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>13574053993</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45954.456250000003</v>
+      </c>
+      <c r="C33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" t="s">
+        <v>137</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>168</v>
+      </c>
+      <c r="J33" s="2">
+        <v>45969</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L33" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33" t="s">
+        <v>133</v>
+      </c>
+      <c r="S33" t="s">
+        <v>134</v>
+      </c>
+      <c r="T33" t="s">
+        <v>135</v>
+      </c>
+      <c r="V33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>13637718443</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45962.711111111108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>168</v>
+      </c>
+      <c r="J34" s="2">
+        <v>45969</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L34" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34" t="s">
+        <v>138</v>
+      </c>
+      <c r="S34" t="s">
+        <v>139</v>
+      </c>
+      <c r="T34" t="s">
+        <v>140</v>
+      </c>
+      <c r="V34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>13637826033</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45962.722222222219</v>
+      </c>
+      <c r="C35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>168</v>
+      </c>
+      <c r="J35" s="2">
+        <v>45969</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L35" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35" t="s">
+        <v>141</v>
+      </c>
+      <c r="S35" t="s">
+        <v>142</v>
+      </c>
+      <c r="T35" t="s">
+        <v>143</v>
+      </c>
+      <c r="V35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>13637993093</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45962.739583333336</v>
+      </c>
+      <c r="C36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" t="s">
+        <v>146</v>
+      </c>
+      <c r="F36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>168</v>
+      </c>
+      <c r="J36" s="2">
+        <v>45969</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L36" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36" t="s">
+        <v>144</v>
+      </c>
+      <c r="S36" t="s">
+        <v>145</v>
+      </c>
+      <c r="T36" t="s">
+        <v>146</v>
+      </c>
+      <c r="V36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>13638123313</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45962.752083333333</v>
+      </c>
+      <c r="C37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" t="s">
+        <v>151</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>168</v>
+      </c>
+      <c r="J37" s="2">
+        <v>45969</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L37" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37" t="s">
+        <v>147</v>
+      </c>
+      <c r="S37" t="s">
+        <v>148</v>
+      </c>
+      <c r="T37" t="s">
+        <v>149</v>
+      </c>
+      <c r="V37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>13638146423</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45962.754166666666</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>168</v>
+      </c>
+      <c r="J38" s="2">
+        <v>45969</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L38" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" t="s">
+        <v>31</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38" t="s">
+        <v>98</v>
+      </c>
+      <c r="S38" t="s">
+        <v>99</v>
+      </c>
+      <c r="T38" t="s">
+        <v>100</v>
+      </c>
+      <c r="V38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>13638148673</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45962.754166666666</v>
+      </c>
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" t="s">
+        <v>94</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>168</v>
+      </c>
+      <c r="J39" s="2">
+        <v>45969</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39" t="s">
+        <v>152</v>
+      </c>
+      <c r="S39" t="s">
+        <v>153</v>
+      </c>
+      <c r="T39" t="s">
+        <v>154</v>
+      </c>
+      <c r="V39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>13638316163</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45962.770138888889</v>
+      </c>
+      <c r="C40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" t="s">
+        <v>159</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>168</v>
+      </c>
+      <c r="J40" s="2">
+        <v>45969</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L40" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40" t="s">
+        <v>155</v>
+      </c>
+      <c r="S40" t="s">
+        <v>156</v>
+      </c>
+      <c r="T40" t="s">
+        <v>157</v>
+      </c>
+      <c r="V40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>13638328653</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45962.771527777775</v>
+      </c>
+      <c r="C41" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>168</v>
+      </c>
+      <c r="J41" s="2">
+        <v>45969</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41" t="s">
+        <v>160</v>
+      </c>
+      <c r="S41" t="s">
+        <v>161</v>
+      </c>
+      <c r="T41" t="s">
+        <v>162</v>
+      </c>
+      <c r="V41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>13638353133</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45962.774305555555</v>
+      </c>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>168</v>
+      </c>
+      <c r="J42" s="2">
+        <v>45969</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L42" t="s">
+        <v>30</v>
+      </c>
+      <c r="M42" t="s">
+        <v>31</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>32</v>
+      </c>
+      <c r="P42" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42" t="s">
+        <v>163</v>
+      </c>
+      <c r="S42" t="s">
+        <v>164</v>
+      </c>
+      <c r="T42" t="s">
+        <v>165</v>
+      </c>
+      <c r="V42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>13639229663</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45962.880555555559</v>
+      </c>
+      <c r="C43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>168</v>
+      </c>
+      <c r="J43" s="2">
+        <v>45969</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" t="s">
+        <v>31</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P43" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43" t="s">
+        <v>108</v>
+      </c>
+      <c r="S43" t="s">
+        <v>109</v>
+      </c>
+      <c r="T43" t="s">
+        <v>110</v>
+      </c>
+      <c r="V43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>13639315853</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45962.890972222223</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>168</v>
+      </c>
+      <c r="J44" s="2">
+        <v>45969</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L44" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P44" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44" t="s">
+        <v>114</v>
+      </c>
+      <c r="S44" t="s">
+        <v>115</v>
+      </c>
+      <c r="T44" t="s">
+        <v>116</v>
+      </c>
+      <c r="V44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="N45">
+        <f>SUM(N30:N44)</f>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/joy_journalling_trial_2025.xlsx
+++ b/joy_journalling_trial_2025.xlsx
@@ -8,16 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShanayaA(DA-LON14)\Desktop\pens_with_intention\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E9D7B6-DB88-4D05-A13A-510338E2BB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A683FA-221E-458B-B0DE-3491A1CD67C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{E423C8AC-8376-41B4-864C-C3487EEF4363}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{E423C8AC-8376-41B4-864C-C3487EEF4363}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
     <sheet name=" Cleaned" sheetId="2" r:id="rId2"/>
     <sheet name=" Cleaned (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="DA Atendees" sheetId="6" r:id="rId4"/>
+    <sheet name="DA_borough" sheetId="5" r:id="rId5"/>
+    <sheet name="Emails" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId7"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="180">
   <si>
     <t>Order ID</t>
   </si>
@@ -542,13 +548,49 @@
   </si>
   <si>
     <t>FREE Joy Journaling Session (In person) Pens With Intention</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Ticket quantity</t>
+  </si>
+  <si>
+    <t>Attendee No</t>
+  </si>
+  <si>
+    <t>Atendee No</t>
+  </si>
+  <si>
+    <t>11-Oct</t>
+  </si>
+  <si>
+    <t>25-Oct</t>
+  </si>
+  <si>
+    <t>08-Nov</t>
+  </si>
+  <si>
+    <t>22-Nov</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,6 +724,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1025,12 +1073,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1087,6 +1145,4900 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[joy_journalling_trial_2025.xlsx]DA Atendees!PivotTable3</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DA Atendees'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DA Atendees'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11-Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-Oct</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>08-Nov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22-Nov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DA Atendees'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-453A-441E-9D94-200C359E761B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1330738095"/>
+        <c:axId val="1330738575"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1330738095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1330738575"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1330738575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1330738095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[joy_journalling_trial_2025.xlsx]DA_borough!PivotTable1</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Where Attendees are Based </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27931556991422868"/>
+          <c:y val="9.2420285664039023E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DA_borough!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>DA_borough!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Birmingham</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>City of London</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>City of Westminster</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Croydon</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dagenham</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Glasgow</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Greenwich</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Hackney</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lambeth</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Leeds</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Lewisham</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>London</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Lowestoft</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Muswell Hill</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Southwark</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Waltham Forest</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Wandsworth</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DA_borough!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F4E-464E-954F-10D518EF042E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1330726575"/>
+        <c:axId val="1330721295"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1330726575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1330721295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1330721295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1330726575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C53EBDA-0AB5-46FC-AAE2-DD420DA5A52E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6351</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>277356</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>21895</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED898226-5DD5-3364-FCAA-A734481C9F2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Shanaya A (DA-LON14)" refreshedDate="45986.849723611114" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="44" xr:uid="{413FFD50-C52B-4D6C-919F-08C5B37EBEA1}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:W41" sheet=" Cleaned (2)"/>
+  </cacheSource>
+  <cacheFields count="25">
+    <cacheField name="Order ID" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="13368051093" maxValue="13641109033"/>
+    </cacheField>
+    <cacheField name="Order date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-09-28T22:30:00" maxDate="2025-11-02T05:29:00"/>
+    </cacheField>
+    <cacheField name="Attendee first name" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Attendee last name" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Attendee email" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Borough" numFmtId="0">
+      <sharedItems containsBlank="1" count="19">
+        <s v="Glasgow"/>
+        <s v="Hackney"/>
+        <s v="Wandsworth"/>
+        <s v="Lewisham"/>
+        <s v="Lambeth"/>
+        <s v="Southwark"/>
+        <s v="N/A"/>
+        <m/>
+        <s v="City of Westminster"/>
+        <s v="Dagenham"/>
+        <s v="Waltham Forest"/>
+        <s v="City of London"/>
+        <s v="Lowestoft"/>
+        <s v="London"/>
+        <s v="Greenwich"/>
+        <s v="Leeds"/>
+        <s v="Birmingham"/>
+        <s v="Muswell Hill"/>
+        <s v="Croydon"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Postcode" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Purchaser country" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Event name" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Event start date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-10-11T00:00:00" maxDate="2025-11-23T00:00:00" count="5">
+        <d v="2025-10-25T00:00:00"/>
+        <m/>
+        <d v="2025-10-11T00:00:00"/>
+        <d v="2025-11-22T00:00:00"/>
+        <d v="2025-11-08T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="24"/>
+    </cacheField>
+    <cacheField name="Event start time" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T11:00:00" maxDate="1899-12-30T11:00:00"/>
+    </cacheField>
+    <cacheField name="Event timezone" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Event location" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Ticket quantity" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Totals" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5" maxValue="15"/>
+    </cacheField>
+    <cacheField name="Ticket type" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Currency" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Ticket price" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="Buyer first name" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Buyer last name" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Buyer email" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Seating location 1" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Guest" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Days (Event start date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="9">
+        <rangePr groupBy="days" startDate="2025-10-11T00:00:00" endDate="2025-11-23T00:00:00"/>
+        <groupItems count="368">
+          <s v="&lt;11/10/2025"/>
+          <s v="01-Jan"/>
+          <s v="02-Jan"/>
+          <s v="03-Jan"/>
+          <s v="04-Jan"/>
+          <s v="05-Jan"/>
+          <s v="06-Jan"/>
+          <s v="07-Jan"/>
+          <s v="08-Jan"/>
+          <s v="09-Jan"/>
+          <s v="10-Jan"/>
+          <s v="11-Jan"/>
+          <s v="12-Jan"/>
+          <s v="13-Jan"/>
+          <s v="14-Jan"/>
+          <s v="15-Jan"/>
+          <s v="16-Jan"/>
+          <s v="17-Jan"/>
+          <s v="18-Jan"/>
+          <s v="19-Jan"/>
+          <s v="20-Jan"/>
+          <s v="21-Jan"/>
+          <s v="22-Jan"/>
+          <s v="23-Jan"/>
+          <s v="24-Jan"/>
+          <s v="25-Jan"/>
+          <s v="26-Jan"/>
+          <s v="27-Jan"/>
+          <s v="28-Jan"/>
+          <s v="29-Jan"/>
+          <s v="30-Jan"/>
+          <s v="31-Jan"/>
+          <s v="01-Feb"/>
+          <s v="02-Feb"/>
+          <s v="03-Feb"/>
+          <s v="04-Feb"/>
+          <s v="05-Feb"/>
+          <s v="06-Feb"/>
+          <s v="07-Feb"/>
+          <s v="08-Feb"/>
+          <s v="09-Feb"/>
+          <s v="10-Feb"/>
+          <s v="11-Feb"/>
+          <s v="12-Feb"/>
+          <s v="13-Feb"/>
+          <s v="14-Feb"/>
+          <s v="15-Feb"/>
+          <s v="16-Feb"/>
+          <s v="17-Feb"/>
+          <s v="18-Feb"/>
+          <s v="19-Feb"/>
+          <s v="20-Feb"/>
+          <s v="21-Feb"/>
+          <s v="22-Feb"/>
+          <s v="23-Feb"/>
+          <s v="24-Feb"/>
+          <s v="25-Feb"/>
+          <s v="26-Feb"/>
+          <s v="27-Feb"/>
+          <s v="28-Feb"/>
+          <s v="29-Feb"/>
+          <s v="01-Mar"/>
+          <s v="02-Mar"/>
+          <s v="03-Mar"/>
+          <s v="04-Mar"/>
+          <s v="05-Mar"/>
+          <s v="06-Mar"/>
+          <s v="07-Mar"/>
+          <s v="08-Mar"/>
+          <s v="09-Mar"/>
+          <s v="10-Mar"/>
+          <s v="11-Mar"/>
+          <s v="12-Mar"/>
+          <s v="13-Mar"/>
+          <s v="14-Mar"/>
+          <s v="15-Mar"/>
+          <s v="16-Mar"/>
+          <s v="17-Mar"/>
+          <s v="18-Mar"/>
+          <s v="19-Mar"/>
+          <s v="20-Mar"/>
+          <s v="21-Mar"/>
+          <s v="22-Mar"/>
+          <s v="23-Mar"/>
+          <s v="24-Mar"/>
+          <s v="25-Mar"/>
+          <s v="26-Mar"/>
+          <s v="27-Mar"/>
+          <s v="28-Mar"/>
+          <s v="29-Mar"/>
+          <s v="30-Mar"/>
+          <s v="31-Mar"/>
+          <s v="01-Apr"/>
+          <s v="02-Apr"/>
+          <s v="03-Apr"/>
+          <s v="04-Apr"/>
+          <s v="05-Apr"/>
+          <s v="06-Apr"/>
+          <s v="07-Apr"/>
+          <s v="08-Apr"/>
+          <s v="09-Apr"/>
+          <s v="10-Apr"/>
+          <s v="11-Apr"/>
+          <s v="12-Apr"/>
+          <s v="13-Apr"/>
+          <s v="14-Apr"/>
+          <s v="15-Apr"/>
+          <s v="16-Apr"/>
+          <s v="17-Apr"/>
+          <s v="18-Apr"/>
+          <s v="19-Apr"/>
+          <s v="20-Apr"/>
+          <s v="21-Apr"/>
+          <s v="22-Apr"/>
+          <s v="23-Apr"/>
+          <s v="24-Apr"/>
+          <s v="25-Apr"/>
+          <s v="26-Apr"/>
+          <s v="27-Apr"/>
+          <s v="28-Apr"/>
+          <s v="29-Apr"/>
+          <s v="30-Apr"/>
+          <s v="01-May"/>
+          <s v="02-May"/>
+          <s v="03-May"/>
+          <s v="04-May"/>
+          <s v="05-May"/>
+          <s v="06-May"/>
+          <s v="07-May"/>
+          <s v="08-May"/>
+          <s v="09-May"/>
+          <s v="10-May"/>
+          <s v="11-May"/>
+          <s v="12-May"/>
+          <s v="13-May"/>
+          <s v="14-May"/>
+          <s v="15-May"/>
+          <s v="16-May"/>
+          <s v="17-May"/>
+          <s v="18-May"/>
+          <s v="19-May"/>
+          <s v="20-May"/>
+          <s v="21-May"/>
+          <s v="22-May"/>
+          <s v="23-May"/>
+          <s v="24-May"/>
+          <s v="25-May"/>
+          <s v="26-May"/>
+          <s v="27-May"/>
+          <s v="28-May"/>
+          <s v="29-May"/>
+          <s v="30-May"/>
+          <s v="31-May"/>
+          <s v="01-Jun"/>
+          <s v="02-Jun"/>
+          <s v="03-Jun"/>
+          <s v="04-Jun"/>
+          <s v="05-Jun"/>
+          <s v="06-Jun"/>
+          <s v="07-Jun"/>
+          <s v="08-Jun"/>
+          <s v="09-Jun"/>
+          <s v="10-Jun"/>
+          <s v="11-Jun"/>
+          <s v="12-Jun"/>
+          <s v="13-Jun"/>
+          <s v="14-Jun"/>
+          <s v="15-Jun"/>
+          <s v="16-Jun"/>
+          <s v="17-Jun"/>
+          <s v="18-Jun"/>
+          <s v="19-Jun"/>
+          <s v="20-Jun"/>
+          <s v="21-Jun"/>
+          <s v="22-Jun"/>
+          <s v="23-Jun"/>
+          <s v="24-Jun"/>
+          <s v="25-Jun"/>
+          <s v="26-Jun"/>
+          <s v="27-Jun"/>
+          <s v="28-Jun"/>
+          <s v="29-Jun"/>
+          <s v="30-Jun"/>
+          <s v="01-Jul"/>
+          <s v="02-Jul"/>
+          <s v="03-Jul"/>
+          <s v="04-Jul"/>
+          <s v="05-Jul"/>
+          <s v="06-Jul"/>
+          <s v="07-Jul"/>
+          <s v="08-Jul"/>
+          <s v="09-Jul"/>
+          <s v="10-Jul"/>
+          <s v="11-Jul"/>
+          <s v="12-Jul"/>
+          <s v="13-Jul"/>
+          <s v="14-Jul"/>
+          <s v="15-Jul"/>
+          <s v="16-Jul"/>
+          <s v="17-Jul"/>
+          <s v="18-Jul"/>
+          <s v="19-Jul"/>
+          <s v="20-Jul"/>
+          <s v="21-Jul"/>
+          <s v="22-Jul"/>
+          <s v="23-Jul"/>
+          <s v="24-Jul"/>
+          <s v="25-Jul"/>
+          <s v="26-Jul"/>
+          <s v="27-Jul"/>
+          <s v="28-Jul"/>
+          <s v="29-Jul"/>
+          <s v="30-Jul"/>
+          <s v="31-Jul"/>
+          <s v="01-Aug"/>
+          <s v="02-Aug"/>
+          <s v="03-Aug"/>
+          <s v="04-Aug"/>
+          <s v="05-Aug"/>
+          <s v="06-Aug"/>
+          <s v="07-Aug"/>
+          <s v="08-Aug"/>
+          <s v="09-Aug"/>
+          <s v="10-Aug"/>
+          <s v="11-Aug"/>
+          <s v="12-Aug"/>
+          <s v="13-Aug"/>
+          <s v="14-Aug"/>
+          <s v="15-Aug"/>
+          <s v="16-Aug"/>
+          <s v="17-Aug"/>
+          <s v="18-Aug"/>
+          <s v="19-Aug"/>
+          <s v="20-Aug"/>
+          <s v="21-Aug"/>
+          <s v="22-Aug"/>
+          <s v="23-Aug"/>
+          <s v="24-Aug"/>
+          <s v="25-Aug"/>
+          <s v="26-Aug"/>
+          <s v="27-Aug"/>
+          <s v="28-Aug"/>
+          <s v="29-Aug"/>
+          <s v="30-Aug"/>
+          <s v="31-Aug"/>
+          <s v="01-Sep"/>
+          <s v="02-Sep"/>
+          <s v="03-Sep"/>
+          <s v="04-Sep"/>
+          <s v="05-Sep"/>
+          <s v="06-Sep"/>
+          <s v="07-Sep"/>
+          <s v="08-Sep"/>
+          <s v="09-Sep"/>
+          <s v="10-Sep"/>
+          <s v="11-Sep"/>
+          <s v="12-Sep"/>
+          <s v="13-Sep"/>
+          <s v="14-Sep"/>
+          <s v="15-Sep"/>
+          <s v="16-Sep"/>
+          <s v="17-Sep"/>
+          <s v="18-Sep"/>
+          <s v="19-Sep"/>
+          <s v="20-Sep"/>
+          <s v="21-Sep"/>
+          <s v="22-Sep"/>
+          <s v="23-Sep"/>
+          <s v="24-Sep"/>
+          <s v="25-Sep"/>
+          <s v="26-Sep"/>
+          <s v="27-Sep"/>
+          <s v="28-Sep"/>
+          <s v="29-Sep"/>
+          <s v="30-Sep"/>
+          <s v="01-Oct"/>
+          <s v="02-Oct"/>
+          <s v="03-Oct"/>
+          <s v="04-Oct"/>
+          <s v="05-Oct"/>
+          <s v="06-Oct"/>
+          <s v="07-Oct"/>
+          <s v="08-Oct"/>
+          <s v="09-Oct"/>
+          <s v="10-Oct"/>
+          <s v="11-Oct"/>
+          <s v="12-Oct"/>
+          <s v="13-Oct"/>
+          <s v="14-Oct"/>
+          <s v="15-Oct"/>
+          <s v="16-Oct"/>
+          <s v="17-Oct"/>
+          <s v="18-Oct"/>
+          <s v="19-Oct"/>
+          <s v="20-Oct"/>
+          <s v="21-Oct"/>
+          <s v="22-Oct"/>
+          <s v="23-Oct"/>
+          <s v="24-Oct"/>
+          <s v="25-Oct"/>
+          <s v="26-Oct"/>
+          <s v="27-Oct"/>
+          <s v="28-Oct"/>
+          <s v="29-Oct"/>
+          <s v="30-Oct"/>
+          <s v="31-Oct"/>
+          <s v="01-Nov"/>
+          <s v="02-Nov"/>
+          <s v="03-Nov"/>
+          <s v="04-Nov"/>
+          <s v="05-Nov"/>
+          <s v="06-Nov"/>
+          <s v="07-Nov"/>
+          <s v="08-Nov"/>
+          <s v="09-Nov"/>
+          <s v="10-Nov"/>
+          <s v="11-Nov"/>
+          <s v="12-Nov"/>
+          <s v="13-Nov"/>
+          <s v="14-Nov"/>
+          <s v="15-Nov"/>
+          <s v="16-Nov"/>
+          <s v="17-Nov"/>
+          <s v="18-Nov"/>
+          <s v="19-Nov"/>
+          <s v="20-Nov"/>
+          <s v="21-Nov"/>
+          <s v="22-Nov"/>
+          <s v="23-Nov"/>
+          <s v="24-Nov"/>
+          <s v="25-Nov"/>
+          <s v="26-Nov"/>
+          <s v="27-Nov"/>
+          <s v="28-Nov"/>
+          <s v="29-Nov"/>
+          <s v="30-Nov"/>
+          <s v="01-Dec"/>
+          <s v="02-Dec"/>
+          <s v="03-Dec"/>
+          <s v="04-Dec"/>
+          <s v="05-Dec"/>
+          <s v="06-Dec"/>
+          <s v="07-Dec"/>
+          <s v="08-Dec"/>
+          <s v="09-Dec"/>
+          <s v="10-Dec"/>
+          <s v="11-Dec"/>
+          <s v="12-Dec"/>
+          <s v="13-Dec"/>
+          <s v="14-Dec"/>
+          <s v="15-Dec"/>
+          <s v="16-Dec"/>
+          <s v="17-Dec"/>
+          <s v="18-Dec"/>
+          <s v="19-Dec"/>
+          <s v="20-Dec"/>
+          <s v="21-Dec"/>
+          <s v="22-Dec"/>
+          <s v="23-Dec"/>
+          <s v="24-Dec"/>
+          <s v="25-Dec"/>
+          <s v="26-Dec"/>
+          <s v="27-Dec"/>
+          <s v="28-Dec"/>
+          <s v="29-Dec"/>
+          <s v="30-Dec"/>
+          <s v="31-Dec"/>
+          <s v="&gt;23/11/2025"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Months (Event start date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="9">
+        <rangePr groupBy="months" startDate="2025-10-11T00:00:00" endDate="2025-11-23T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;11/10/2025"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;23/11/2025"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="44">
+  <r>
+    <n v="13379152993"/>
+    <d v="2025-09-30T12:43:00"/>
+    <s v="Jennifer"/>
+    <s v="Bates"/>
+    <s v="jenniferbates35@gmail.com"/>
+    <x v="0"/>
+    <s v="GLG"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="0"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Jennifer"/>
+    <s v="Bates"/>
+    <s v="jenniferbates35@gmail.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13379495283"/>
+    <d v="2025-09-30T13:42:00"/>
+    <s v="Tasmin"/>
+    <s v="Coleman"/>
+    <s v="tazzy13@hotmail.co.uk"/>
+    <x v="1"/>
+    <s v="HCK"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="0"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Tasmin"/>
+    <s v="Coleman"/>
+    <s v="tazzy13@hotmail.co.uk"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13419329473"/>
+    <d v="2025-10-05T00:42:00"/>
+    <s v="Louise"/>
+    <s v="Macardle"/>
+    <s v="louisemacardle@hotmail.co.uk"/>
+    <x v="2"/>
+    <s v="WND"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="0"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Louise"/>
+    <s v="Macardle"/>
+    <s v="louisemacardle@hotmail.co.uk"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13445524953"/>
+    <d v="2025-10-08T15:54:00"/>
+    <s v="Eleanor"/>
+    <s v="Greenhalgh"/>
+    <s v="elghalgh@hotmail.co.uk"/>
+    <x v="3"/>
+    <s v="LEW"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="0"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Eleanor"/>
+    <s v="Greenhalgh"/>
+    <s v="elghalgh@hotmail.co.uk"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13494885253"/>
+    <d v="2025-10-14T19:51:00"/>
+    <s v="Richard"/>
+    <s v="Golah"/>
+    <s v="golahebue@gmail.com"/>
+    <x v="4"/>
+    <s v="LBH"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="0"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Richard"/>
+    <s v="Golah"/>
+    <s v="golahebue@gmail.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13496226503"/>
+    <d v="2025-10-14T22:35:00"/>
+    <s v="Madelaine"/>
+    <s v="cameron"/>
+    <s v="madelaine_cameron@yahoo.com"/>
+    <x v="5"/>
+    <s v="SWK"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="0"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Madelaine"/>
+    <s v="cameron"/>
+    <s v="madelaine_cameron@yahoo.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13565344263"/>
+    <d v="2025-10-23T10:22:00"/>
+    <s v="Richard"/>
+    <s v="Golah-Ebue"/>
+    <s v="golahebue@gmail.com"/>
+    <x v="6"/>
+    <s v="N/A"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="0"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Richard"/>
+    <s v="Golah-Ebue"/>
+    <s v="golahebue@gmail.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="13381738233"/>
+    <d v="2025-09-30T18:25:00"/>
+    <s v="Stefani"/>
+    <s v="Williams"/>
+    <s v="stefaniwilliams90@gmail.com"/>
+    <x v="1"/>
+    <s v="HCK"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="2"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Stefani"/>
+    <s v="Williams"/>
+    <s v="stefaniwilliams90@gmail.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13407883603"/>
+    <d v="2025-10-03T14:55:00"/>
+    <s v="B"/>
+    <s v="Iceni"/>
+    <s v="bodicea.iceni999@gmail.com"/>
+    <x v="8"/>
+    <s v="WSM"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="2"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="B"/>
+    <s v="Iceni"/>
+    <s v="bodicea.iceni999@gmail.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13415452883"/>
+    <d v="2025-10-04T13:11:00"/>
+    <s v="Jill"/>
+    <s v="Mortimer"/>
+    <s v="jill.mortimer853@gmail.com"/>
+    <x v="9"/>
+    <s v="BDG"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="2"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Jill"/>
+    <s v="Mortimer"/>
+    <s v="jill.mortimer853@gmail.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13419317593"/>
+    <d v="2025-10-05T00:39:00"/>
+    <s v="Louise"/>
+    <s v="Macardle"/>
+    <s v="louisemacardle@hotmail.co.uk"/>
+    <x v="2"/>
+    <s v="WND"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="2"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Louise"/>
+    <s v="Macardle"/>
+    <s v="louisemacardle@hotmail.co.uk"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13443871993"/>
+    <d v="2025-10-08T11:36:00"/>
+    <s v="margery"/>
+    <s v="povall"/>
+    <s v="margerypovall@gmail.com"/>
+    <x v="4"/>
+    <s v="LBH"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="2"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="margery"/>
+    <s v="povall"/>
+    <s v="margerypovall@gmail.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13469283613"/>
+    <d v="2025-10-11T08:40:00"/>
+    <s v="Ruma"/>
+    <s v="Parvin"/>
+    <s v="r.r.b.parvin@gmail.com"/>
+    <x v="6"/>
+    <s v="N/A"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="2"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Ruma"/>
+    <s v="Parvin"/>
+    <s v="r.r.b.parvin@gmail.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="13368058793"/>
+    <d v="2025-09-28T22:32:00"/>
+    <s v="Sim"/>
+    <s v="Martin"/>
+    <s v="simulation1@hotmail.co.uk"/>
+    <x v="6"/>
+    <s v="N/A"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="3"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Sim"/>
+    <s v="Martin"/>
+    <s v="simulation1@hotmail.co.uk"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13395119263"/>
+    <d v="2025-10-02T04:37:00"/>
+    <s v="Denise"/>
+    <s v="Mitchell"/>
+    <s v="dm3003@columbia.edu"/>
+    <x v="10"/>
+    <s v="WFT"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="3"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Denise"/>
+    <s v="Mitchell"/>
+    <s v="dm3003@columbia.edu"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13509471093"/>
+    <d v="2025-10-16T11:01:00"/>
+    <s v="Laura"/>
+    <s v="Crean"/>
+    <s v="lauracrean@gmail.com"/>
+    <x v="11"/>
+    <s v="LND"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="3"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Laura"/>
+    <s v="Crean"/>
+    <s v="lauracrean@gmail.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13637734653"/>
+    <d v="2025-11-01T17:06:00"/>
+    <s v="Luisa"/>
+    <s v="Finelli"/>
+    <s v="luisa.finelli@gmail.com"/>
+    <x v="1"/>
+    <s v="HCK"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="3"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Luisa"/>
+    <s v="Finelli"/>
+    <s v="luisa.finelli@gmail.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13638194263"/>
+    <d v="2025-11-01T18:12:00"/>
+    <s v="Anne"/>
+    <s v="Wareing"/>
+    <s v="wareing_anne@hotmail.com"/>
+    <x v="12"/>
+    <s v="SFK"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="3"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Anne"/>
+    <s v="Wareing"/>
+    <s v="wareing_anne@hotmail.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13638251133"/>
+    <d v="2025-11-01T18:20:00"/>
+    <s v="Rosie"/>
+    <s v="McBride"/>
+    <s v="rosiemcbride@hotmail.co.uk"/>
+    <x v="13"/>
+    <s v="ENG"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="3"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Rosie"/>
+    <s v="McBride"/>
+    <s v="rosiemcbride@hotmail.co.uk"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13639249843"/>
+    <d v="2025-11-01T21:11:00"/>
+    <s v="Mukta"/>
+    <s v="Das"/>
+    <s v="mukta.das@outlook.com"/>
+    <x v="4"/>
+    <s v="LBH"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="3"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Mukta"/>
+    <s v="Das"/>
+    <s v="mukta.das@outlook.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13639308643"/>
+    <d v="2025-11-01T21:22:00"/>
+    <s v="Lorraine"/>
+    <s v="Palmer"/>
+    <s v="lozzagirl67@yahoo.co.uk"/>
+    <x v="13"/>
+    <s v="ENG"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="3"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Lorraine"/>
+    <s v="Palmer"/>
+    <s v="lozzagirl67@yahoo.co.uk"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13639318833"/>
+    <d v="2025-11-01T21:23:00"/>
+    <s v="Sophie"/>
+    <s v="Douglas"/>
+    <s v="sophieadouglas@gmail.com"/>
+    <x v="4"/>
+    <s v="LBH"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="3"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Sophie"/>
+    <s v="Douglas"/>
+    <s v="sophieadouglas@gmail.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13639633863"/>
+    <d v="2025-11-01T22:24:00"/>
+    <s v="Aleksandra"/>
+    <s v="Besevic"/>
+    <s v="aleksandra.besevic@hotmail.co.uk"/>
+    <x v="13"/>
+    <s v="ENG"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="3"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Aleksandra"/>
+    <s v="Besevic"/>
+    <s v="aleksandra.besevic@hotmail.co.uk"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13639670103"/>
+    <d v="2025-11-01T22:31:00"/>
+    <s v="Sherret"/>
+    <s v="Angus"/>
+    <s v="sherretangus@gmail.com"/>
+    <x v="4"/>
+    <s v="LBH"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="3"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Sherret"/>
+    <s v="Angus"/>
+    <s v="sherretangus@gmail.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13641109033"/>
+    <d v="2025-11-02T05:29:00"/>
+    <s v="Francine"/>
+    <s v="NZAZI"/>
+    <s v="francinemz@yahoo.co.uk"/>
+    <x v="14"/>
+    <s v="GRE"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="3"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Francine"/>
+    <s v="NZAZI"/>
+    <s v="francinemz@yahoo.co.uk"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="12"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="13368051093"/>
+    <d v="2025-09-28T22:30:00"/>
+    <s v="Sim"/>
+    <s v="Martin"/>
+    <s v="simulation1@hotmail.co.uk"/>
+    <x v="6"/>
+    <s v="N/A"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="4"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Sim"/>
+    <s v="Martin"/>
+    <s v="simulation1@hotmail.co.uk"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13496229853"/>
+    <d v="2025-10-14T22:35:00"/>
+    <s v="Madelaine"/>
+    <s v="cameron"/>
+    <s v="madelaine_cameron@yahoo.com"/>
+    <x v="5"/>
+    <s v="SWK"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="4"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Madelaine"/>
+    <s v="cameron"/>
+    <s v="madelaine_cameron@yahoo.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13521023543"/>
+    <d v="2025-10-17T17:08:00"/>
+    <s v="Souad"/>
+    <s v="Swaray"/>
+    <s v="souadconstance@gmail.com"/>
+    <x v="15"/>
+    <s v="LDS"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="4"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Souad"/>
+    <s v="Swaray"/>
+    <s v="souadconstance@gmail.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13574053993"/>
+    <d v="2025-10-24T10:57:00"/>
+    <s v="Nora"/>
+    <s v="Toumi"/>
+    <s v="nora.toumi@gmail.com"/>
+    <x v="16"/>
+    <s v="BIR"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="4"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Nora"/>
+    <s v="Toumi"/>
+    <s v="nora.toumi@gmail.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13637718443"/>
+    <d v="2025-11-01T17:04:00"/>
+    <s v="Sandra"/>
+    <s v="Wareham"/>
+    <s v="sfwareham67@gmail.com"/>
+    <x v="5"/>
+    <s v="SWK"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="4"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Sandra"/>
+    <s v="Wareham"/>
+    <s v="sfwareham67@gmail.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13637826033"/>
+    <d v="2025-11-01T17:20:00"/>
+    <s v="Andra"/>
+    <s v="Burdea"/>
+    <s v="uctzaab@ucl.ac.uk"/>
+    <x v="6"/>
+    <s v="N/A"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="4"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Andra"/>
+    <s v="Burdea"/>
+    <s v="uctzaab@ucl.ac.uk"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13637993093"/>
+    <d v="2025-11-01T17:45:00"/>
+    <s v="William"/>
+    <s v="Rodgers"/>
+    <s v="williambkrodgers@gmail.com"/>
+    <x v="11"/>
+    <s v="LND"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="4"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="William"/>
+    <s v="Rodgers"/>
+    <s v="williambkrodgers@gmail.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13638123313"/>
+    <d v="2025-11-01T18:03:00"/>
+    <s v="Catherine"/>
+    <s v="Marshall"/>
+    <s v="cvmarshall91@gmail.com"/>
+    <x v="17"/>
+    <s v="HRY"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="4"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Catherine"/>
+    <s v="Marshall"/>
+    <s v="cvmarshall91@gmail.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13638146423"/>
+    <d v="2025-11-01T18:06:00"/>
+    <s v="Anne"/>
+    <s v="Wareing"/>
+    <s v="wareing_anne@hotmail.com"/>
+    <x v="12"/>
+    <s v="SFK"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="4"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Anne"/>
+    <s v="Wareing"/>
+    <s v="wareing_anne@hotmail.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13638148673"/>
+    <d v="2025-11-01T18:06:00"/>
+    <s v="Shakira"/>
+    <s v="Adigun-Boaye"/>
+    <s v="shakira.boaye@gmail.com"/>
+    <x v="11"/>
+    <s v="LND"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="4"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Shakira"/>
+    <s v="Adigun-Boaye"/>
+    <s v="shakira.boaye@gmail.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13638316163"/>
+    <d v="2025-11-01T18:29:00"/>
+    <s v="Andre"/>
+    <s v="Silva"/>
+    <s v="a935011011@gmail.com"/>
+    <x v="18"/>
+    <s v="CRY"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="4"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Andre"/>
+    <s v="Silva"/>
+    <s v="a935011011@gmail.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13638328653"/>
+    <d v="2025-11-01T18:31:00"/>
+    <s v="Janet"/>
+    <s v="Garner"/>
+    <s v="janetgarner1@btinternet.com"/>
+    <x v="13"/>
+    <s v="ENG"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="4"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Janet"/>
+    <s v="Garner"/>
+    <s v="janetgarner1@btinternet.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13638353133"/>
+    <d v="2025-11-01T18:35:00"/>
+    <s v="Kudret"/>
+    <s v="Ciftci-Yelden"/>
+    <s v="bxng5jwcjt@privaterelay.appleid.com"/>
+    <x v="11"/>
+    <s v="LND"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="4"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Kudret"/>
+    <s v="Ciftci-Yelden"/>
+    <s v="bxng5jwcjt@privaterelay.appleid.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13639229663"/>
+    <d v="2025-11-01T21:08:00"/>
+    <s v="Mukta"/>
+    <s v="Das"/>
+    <s v="mukta.das@outlook.com"/>
+    <x v="4"/>
+    <s v="LBH"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="4"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Mukta"/>
+    <s v="Das"/>
+    <s v="mukta.das@outlook.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <n v="13639315853"/>
+    <d v="2025-11-01T21:23:00"/>
+    <s v="Sophie"/>
+    <s v="Douglas"/>
+    <s v="sophieadouglas@gmail.com"/>
+    <x v="4"/>
+    <s v="LBH"/>
+    <s v="GB"/>
+    <s v="FREE Joy Journaling Session (In person) Pens With Intention"/>
+    <x v="4"/>
+    <d v="1899-12-30T11:00:00"/>
+    <s v="Europe/London"/>
+    <s v="Tate Streatham Library"/>
+    <n v="1"/>
+    <m/>
+    <s v="General Admission"/>
+    <s v="USD"/>
+    <n v="0"/>
+    <s v="Sophie"/>
+    <s v="Douglas"/>
+    <s v="sophieadouglas@gmail.com"/>
+    <m/>
+    <s v="No"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="15"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C08F384-1475-4D65-B77E-DF3EADB96CED}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="369">
+        <item h="1" sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="61"/>
+        <item sd="0" x="62"/>
+        <item sd="0" x="63"/>
+        <item sd="0" x="64"/>
+        <item sd="0" x="65"/>
+        <item sd="0" x="66"/>
+        <item sd="0" x="67"/>
+        <item sd="0" x="68"/>
+        <item sd="0" x="69"/>
+        <item sd="0" x="70"/>
+        <item sd="0" x="71"/>
+        <item sd="0" x="72"/>
+        <item sd="0" x="73"/>
+        <item sd="0" x="74"/>
+        <item sd="0" x="75"/>
+        <item sd="0" x="76"/>
+        <item sd="0" x="77"/>
+        <item sd="0" x="78"/>
+        <item sd="0" x="79"/>
+        <item sd="0" x="80"/>
+        <item sd="0" x="81"/>
+        <item sd="0" x="82"/>
+        <item sd="0" x="83"/>
+        <item sd="0" x="84"/>
+        <item sd="0" x="85"/>
+        <item sd="0" x="86"/>
+        <item sd="0" x="87"/>
+        <item sd="0" x="88"/>
+        <item sd="0" x="89"/>
+        <item sd="0" x="90"/>
+        <item sd="0" x="91"/>
+        <item sd="0" x="92"/>
+        <item sd="0" x="93"/>
+        <item sd="0" x="94"/>
+        <item sd="0" x="95"/>
+        <item sd="0" x="96"/>
+        <item sd="0" x="97"/>
+        <item sd="0" x="98"/>
+        <item sd="0" x="99"/>
+        <item sd="0" x="100"/>
+        <item sd="0" x="101"/>
+        <item sd="0" x="102"/>
+        <item sd="0" x="103"/>
+        <item sd="0" x="104"/>
+        <item sd="0" x="105"/>
+        <item sd="0" x="106"/>
+        <item sd="0" x="107"/>
+        <item sd="0" x="108"/>
+        <item sd="0" x="109"/>
+        <item sd="0" x="110"/>
+        <item sd="0" x="111"/>
+        <item sd="0" x="112"/>
+        <item sd="0" x="113"/>
+        <item sd="0" x="114"/>
+        <item sd="0" x="115"/>
+        <item sd="0" x="116"/>
+        <item sd="0" x="117"/>
+        <item sd="0" x="118"/>
+        <item sd="0" x="119"/>
+        <item sd="0" x="120"/>
+        <item sd="0" x="121"/>
+        <item sd="0" x="122"/>
+        <item sd="0" x="123"/>
+        <item sd="0" x="124"/>
+        <item sd="0" x="125"/>
+        <item sd="0" x="126"/>
+        <item sd="0" x="127"/>
+        <item sd="0" x="128"/>
+        <item sd="0" x="129"/>
+        <item sd="0" x="130"/>
+        <item sd="0" x="131"/>
+        <item sd="0" x="132"/>
+        <item sd="0" x="133"/>
+        <item sd="0" x="134"/>
+        <item sd="0" x="135"/>
+        <item sd="0" x="136"/>
+        <item sd="0" x="137"/>
+        <item sd="0" x="138"/>
+        <item sd="0" x="139"/>
+        <item sd="0" x="140"/>
+        <item sd="0" x="141"/>
+        <item sd="0" x="142"/>
+        <item sd="0" x="143"/>
+        <item sd="0" x="144"/>
+        <item sd="0" x="145"/>
+        <item sd="0" x="146"/>
+        <item sd="0" x="147"/>
+        <item sd="0" x="148"/>
+        <item sd="0" x="149"/>
+        <item sd="0" x="150"/>
+        <item sd="0" x="151"/>
+        <item sd="0" x="152"/>
+        <item sd="0" x="153"/>
+        <item sd="0" x="154"/>
+        <item sd="0" x="155"/>
+        <item sd="0" x="156"/>
+        <item sd="0" x="157"/>
+        <item sd="0" x="158"/>
+        <item sd="0" x="159"/>
+        <item sd="0" x="160"/>
+        <item sd="0" x="161"/>
+        <item sd="0" x="162"/>
+        <item sd="0" x="163"/>
+        <item sd="0" x="164"/>
+        <item sd="0" x="165"/>
+        <item sd="0" x="166"/>
+        <item sd="0" x="167"/>
+        <item sd="0" x="168"/>
+        <item sd="0" x="169"/>
+        <item sd="0" x="170"/>
+        <item sd="0" x="171"/>
+        <item sd="0" x="172"/>
+        <item sd="0" x="173"/>
+        <item sd="0" x="174"/>
+        <item sd="0" x="175"/>
+        <item sd="0" x="176"/>
+        <item sd="0" x="177"/>
+        <item sd="0" x="178"/>
+        <item sd="0" x="179"/>
+        <item sd="0" x="180"/>
+        <item sd="0" x="181"/>
+        <item sd="0" x="182"/>
+        <item sd="0" x="183"/>
+        <item sd="0" x="184"/>
+        <item sd="0" x="185"/>
+        <item sd="0" x="186"/>
+        <item sd="0" x="187"/>
+        <item sd="0" x="188"/>
+        <item sd="0" x="189"/>
+        <item sd="0" x="190"/>
+        <item sd="0" x="191"/>
+        <item sd="0" x="192"/>
+        <item sd="0" x="193"/>
+        <item sd="0" x="194"/>
+        <item sd="0" x="195"/>
+        <item sd="0" x="196"/>
+        <item sd="0" x="197"/>
+        <item sd="0" x="198"/>
+        <item sd="0" x="199"/>
+        <item sd="0" x="200"/>
+        <item sd="0" x="201"/>
+        <item sd="0" x="202"/>
+        <item sd="0" x="203"/>
+        <item sd="0" x="204"/>
+        <item sd="0" x="205"/>
+        <item sd="0" x="206"/>
+        <item sd="0" x="207"/>
+        <item sd="0" x="208"/>
+        <item sd="0" x="209"/>
+        <item sd="0" x="210"/>
+        <item sd="0" x="211"/>
+        <item sd="0" x="212"/>
+        <item sd="0" x="213"/>
+        <item sd="0" x="214"/>
+        <item sd="0" x="215"/>
+        <item sd="0" x="216"/>
+        <item sd="0" x="217"/>
+        <item sd="0" x="218"/>
+        <item sd="0" x="219"/>
+        <item sd="0" x="220"/>
+        <item sd="0" x="221"/>
+        <item sd="0" x="222"/>
+        <item sd="0" x="223"/>
+        <item sd="0" x="224"/>
+        <item sd="0" x="225"/>
+        <item sd="0" x="226"/>
+        <item sd="0" x="227"/>
+        <item sd="0" x="228"/>
+        <item sd="0" x="229"/>
+        <item sd="0" x="230"/>
+        <item sd="0" x="231"/>
+        <item sd="0" x="232"/>
+        <item sd="0" x="233"/>
+        <item sd="0" x="234"/>
+        <item sd="0" x="235"/>
+        <item sd="0" x="236"/>
+        <item sd="0" x="237"/>
+        <item sd="0" x="238"/>
+        <item sd="0" x="239"/>
+        <item sd="0" x="240"/>
+        <item sd="0" x="241"/>
+        <item sd="0" x="242"/>
+        <item sd="0" x="243"/>
+        <item sd="0" x="244"/>
+        <item sd="0" x="245"/>
+        <item sd="0" x="246"/>
+        <item sd="0" x="247"/>
+        <item sd="0" x="248"/>
+        <item sd="0" x="249"/>
+        <item sd="0" x="250"/>
+        <item sd="0" x="251"/>
+        <item sd="0" x="252"/>
+        <item sd="0" x="253"/>
+        <item sd="0" x="254"/>
+        <item sd="0" x="255"/>
+        <item sd="0" x="256"/>
+        <item sd="0" x="257"/>
+        <item sd="0" x="258"/>
+        <item sd="0" x="259"/>
+        <item sd="0" x="260"/>
+        <item sd="0" x="261"/>
+        <item sd="0" x="262"/>
+        <item sd="0" x="263"/>
+        <item sd="0" x="264"/>
+        <item sd="0" x="265"/>
+        <item sd="0" x="266"/>
+        <item sd="0" x="267"/>
+        <item sd="0" x="268"/>
+        <item sd="0" x="269"/>
+        <item sd="0" x="270"/>
+        <item sd="0" x="271"/>
+        <item sd="0" x="272"/>
+        <item sd="0" x="273"/>
+        <item sd="0" x="274"/>
+        <item sd="0" x="275"/>
+        <item sd="0" x="276"/>
+        <item sd="0" x="277"/>
+        <item sd="0" x="278"/>
+        <item sd="0" x="279"/>
+        <item sd="0" x="280"/>
+        <item sd="0" x="281"/>
+        <item sd="0" x="282"/>
+        <item sd="0" x="283"/>
+        <item sd="0" x="284"/>
+        <item sd="0" x="285"/>
+        <item sd="0" x="286"/>
+        <item sd="0" x="287"/>
+        <item sd="0" x="288"/>
+        <item sd="0" x="289"/>
+        <item sd="0" x="290"/>
+        <item sd="0" x="291"/>
+        <item sd="0" x="292"/>
+        <item sd="0" x="293"/>
+        <item sd="0" x="294"/>
+        <item sd="0" x="295"/>
+        <item sd="0" x="296"/>
+        <item sd="0" x="297"/>
+        <item sd="0" x="298"/>
+        <item sd="0" x="299"/>
+        <item sd="0" x="300"/>
+        <item sd="0" x="301"/>
+        <item sd="0" x="302"/>
+        <item sd="0" x="303"/>
+        <item sd="0" x="304"/>
+        <item sd="0" x="305"/>
+        <item sd="0" x="306"/>
+        <item sd="0" x="307"/>
+        <item sd="0" x="308"/>
+        <item sd="0" x="309"/>
+        <item sd="0" x="310"/>
+        <item sd="0" x="311"/>
+        <item sd="0" x="312"/>
+        <item sd="0" x="313"/>
+        <item sd="0" x="314"/>
+        <item sd="0" x="315"/>
+        <item sd="0" x="316"/>
+        <item sd="0" x="317"/>
+        <item sd="0" x="318"/>
+        <item sd="0" x="319"/>
+        <item sd="0" x="320"/>
+        <item sd="0" x="321"/>
+        <item sd="0" x="322"/>
+        <item sd="0" x="323"/>
+        <item sd="0" x="324"/>
+        <item sd="0" x="325"/>
+        <item sd="0" x="326"/>
+        <item sd="0" x="327"/>
+        <item sd="0" x="328"/>
+        <item sd="0" x="329"/>
+        <item sd="0" x="330"/>
+        <item sd="0" x="331"/>
+        <item sd="0" x="332"/>
+        <item sd="0" x="333"/>
+        <item sd="0" x="334"/>
+        <item sd="0" x="335"/>
+        <item sd="0" x="336"/>
+        <item sd="0" x="337"/>
+        <item sd="0" x="338"/>
+        <item sd="0" x="339"/>
+        <item sd="0" x="340"/>
+        <item sd="0" x="341"/>
+        <item sd="0" x="342"/>
+        <item sd="0" x="343"/>
+        <item sd="0" x="344"/>
+        <item sd="0" x="345"/>
+        <item sd="0" x="346"/>
+        <item sd="0" x="347"/>
+        <item sd="0" x="348"/>
+        <item sd="0" x="349"/>
+        <item sd="0" x="350"/>
+        <item sd="0" x="351"/>
+        <item sd="0" x="352"/>
+        <item sd="0" x="353"/>
+        <item sd="0" x="354"/>
+        <item sd="0" x="355"/>
+        <item sd="0" x="356"/>
+        <item sd="0" x="357"/>
+        <item sd="0" x="358"/>
+        <item sd="0" x="359"/>
+        <item sd="0" x="360"/>
+        <item sd="0" x="361"/>
+        <item sd="0" x="362"/>
+        <item sd="0" x="363"/>
+        <item sd="0" x="364"/>
+        <item sd="0" x="365"/>
+        <item sd="0" x="366"/>
+        <item sd="0" x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="23"/>
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="285"/>
+    </i>
+    <i>
+      <x v="299"/>
+    </i>
+    <i>
+      <x v="313"/>
+    </i>
+    <i>
+      <x v="327"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Ticket quantity" fld="13" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25F67666-BE0E-41FD-99BC-4873B700F0A3}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A1:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="20">
+        <item x="16"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="18"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="15"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="17"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="20">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Atendee No" fld="13" baseField="5" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1408,7 +6360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4E98AE-DCD7-4A5A-BD18-1E132FC6C031}">
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7245,10 +12197,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29DE56D-D429-4F5A-9176-4882D57384E9}">
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7261,12 +12213,17 @@
     <col min="6" max="6" width="17.81640625" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" customWidth="1"/>
     <col min="9" max="9" width="51.26953125" customWidth="1"/>
-    <col min="10" max="11" width="14.36328125" customWidth="1"/>
-    <col min="15" max="15" width="19.08984375" customWidth="1"/>
-    <col min="21" max="21" width="19.7265625" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" customWidth="1"/>
+    <col min="13" max="13" width="19.7265625" customWidth="1"/>
+    <col min="14" max="14" width="13.36328125" customWidth="1"/>
+    <col min="16" max="16" width="19.08984375" customWidth="1"/>
+    <col min="22" max="22" width="19.7265625" customWidth="1"/>
+    <col min="24" max="24" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7294,7 +12251,7 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -7307,34 +12264,37 @@
         <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>13379152993</v>
       </c>
@@ -7362,7 +12322,7 @@
       <c r="I2" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="10">
         <v>45955</v>
       </c>
       <c r="K2" s="3">
@@ -7377,29 +12337,29 @@
       <c r="N2">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>23</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>24</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>25</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>13379495283</v>
       </c>
@@ -7427,7 +12387,7 @@
       <c r="I3" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="10">
         <v>45955</v>
       </c>
       <c r="K3" s="3">
@@ -7442,29 +12402,29 @@
       <c r="N3">
         <v>1</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>32</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>33</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>35</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>36</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>37</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>13419329473</v>
       </c>
@@ -7492,7 +12452,7 @@
       <c r="I4" t="s">
         <v>168</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="10">
         <v>45955</v>
       </c>
       <c r="K4" s="3">
@@ -7507,29 +12467,29 @@
       <c r="N4">
         <v>1</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>32</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>33</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>40</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>41</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>42</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>13445524953</v>
       </c>
@@ -7557,7 +12517,7 @@
       <c r="I5" t="s">
         <v>168</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="10">
         <v>45955</v>
       </c>
       <c r="K5" s="3">
@@ -7572,29 +12532,29 @@
       <c r="N5">
         <v>1</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>32</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>33</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>45</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>46</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>47</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>13494885253</v>
       </c>
@@ -7622,7 +12582,7 @@
       <c r="I6" t="s">
         <v>168</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="10">
         <v>45955</v>
       </c>
       <c r="K6" s="3">
@@ -7637,29 +12597,29 @@
       <c r="N6">
         <v>1</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>32</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>33</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>50</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>51</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>52</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>13496226503</v>
       </c>
@@ -7687,7 +12647,7 @@
       <c r="I7" t="s">
         <v>168</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="10">
         <v>45955</v>
       </c>
       <c r="K7" s="3">
@@ -7702,29 +12662,29 @@
       <c r="N7">
         <v>1</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>0</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>55</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>56</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>57</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>13565344263</v>
       </c>
@@ -7752,7 +12712,7 @@
       <c r="I8" t="s">
         <v>168</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="10">
         <v>45955</v>
       </c>
       <c r="K8" s="3">
@@ -7767,61 +12727,114 @@
       <c r="N8">
         <v>1</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>32</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>33</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>50</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>60</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>52</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>62</v>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>13381738233</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45930.767361111109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" s="10">
+        <v>45941</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>31</v>
       </c>
       <c r="N9">
-        <f>SUM(N4:N8)</f>
-        <v>5</v>
-      </c>
-      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S9" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" t="s">
+        <v>64</v>
+      </c>
+      <c r="U9" t="s">
+        <v>65</v>
+      </c>
+      <c r="W9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>13381738233</v>
+        <v>13407883603</v>
       </c>
       <c r="B10" s="1">
-        <v>45930.767361111109</v>
+        <v>45933.621527777781</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
         <v>28</v>
@@ -7829,7 +12842,7 @@
       <c r="I10" t="s">
         <v>168</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="10">
         <v>45941</v>
       </c>
       <c r="K10" s="3">
@@ -7844,49 +12857,49 @@
       <c r="N10">
         <v>1</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>32</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>33</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>0</v>
       </c>
-      <c r="R10" t="s">
-        <v>63</v>
-      </c>
       <c r="S10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T10" t="s">
-        <v>65</v>
-      </c>
-      <c r="V10" t="s">
+        <v>67</v>
+      </c>
+      <c r="U10" t="s">
+        <v>68</v>
+      </c>
+      <c r="W10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>13407883603</v>
+        <v>13415452883</v>
       </c>
       <c r="B11" s="1">
-        <v>45933.621527777781</v>
+        <v>45934.549305555556</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s">
         <v>28</v>
@@ -7894,7 +12907,7 @@
       <c r="I11" t="s">
         <v>168</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="10">
         <v>45941</v>
       </c>
       <c r="K11" s="3">
@@ -7909,49 +12922,49 @@
       <c r="N11">
         <v>1</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>32</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>33</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0</v>
       </c>
-      <c r="R11" t="s">
-        <v>66</v>
-      </c>
       <c r="S11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="T11" t="s">
-        <v>68</v>
-      </c>
-      <c r="V11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U11" t="s">
+        <v>73</v>
+      </c>
+      <c r="W11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>13415452883</v>
+        <v>13419317593</v>
       </c>
       <c r="B12" s="1">
-        <v>45934.549305555556</v>
+        <v>45935.027083333334</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
         <v>28</v>
@@ -7959,7 +12972,7 @@
       <c r="I12" t="s">
         <v>168</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="10">
         <v>45941</v>
       </c>
       <c r="K12" s="3">
@@ -7974,49 +12987,49 @@
       <c r="N12">
         <v>1</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>32</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>33</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>0</v>
       </c>
-      <c r="R12" t="s">
-        <v>71</v>
-      </c>
       <c r="S12" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="T12" t="s">
-        <v>73</v>
-      </c>
-      <c r="V12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" t="s">
+        <v>42</v>
+      </c>
+      <c r="W12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>13419317593</v>
+        <v>13443871993</v>
       </c>
       <c r="B13" s="1">
-        <v>45935.027083333334</v>
+        <v>45938.48333333333</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
         <v>28</v>
@@ -8024,7 +13037,7 @@
       <c r="I13" t="s">
         <v>168</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="10">
         <v>45941</v>
       </c>
       <c r="K13" s="3">
@@ -8039,49 +13052,49 @@
       <c r="N13">
         <v>1</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>32</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>33</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>0</v>
       </c>
-      <c r="R13" t="s">
-        <v>40</v>
-      </c>
       <c r="S13" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s">
-        <v>42</v>
-      </c>
-      <c r="V13" t="s">
+        <v>77</v>
+      </c>
+      <c r="U13" t="s">
+        <v>78</v>
+      </c>
+      <c r="W13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>13443871993</v>
+        <v>13469283613</v>
       </c>
       <c r="B14" s="1">
-        <v>45938.48333333333</v>
+        <v>45941.361111111109</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H14" t="s">
         <v>28</v>
@@ -8089,7 +13102,7 @@
       <c r="I14" t="s">
         <v>168</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="10">
         <v>45941</v>
       </c>
       <c r="K14" s="3">
@@ -8104,43 +13117,43 @@
       <c r="N14">
         <v>1</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>32</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>33</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>0</v>
       </c>
-      <c r="R14" t="s">
-        <v>76</v>
-      </c>
       <c r="S14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T14" t="s">
-        <v>78</v>
-      </c>
-      <c r="V14" t="s">
+        <v>80</v>
+      </c>
+      <c r="U14" t="s">
+        <v>81</v>
+      </c>
+      <c r="W14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>13469283613</v>
+        <v>13368058793</v>
       </c>
       <c r="B15" s="1">
-        <v>45941.361111111109</v>
+        <v>45928.938888888886</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
         <v>61</v>
@@ -8154,8 +13167,8 @@
       <c r="I15" t="s">
         <v>168</v>
       </c>
-      <c r="J15" s="2">
-        <v>45941</v>
+      <c r="J15" s="10">
+        <v>45983</v>
       </c>
       <c r="K15" s="3">
         <v>0.45833333333333331</v>
@@ -8169,61 +13182,114 @@
       <c r="N15">
         <v>1</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>32</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>33</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>0</v>
       </c>
-      <c r="R15" t="s">
-        <v>79</v>
-      </c>
       <c r="S15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T15" t="s">
-        <v>81</v>
-      </c>
-      <c r="V15" t="s">
+        <v>83</v>
+      </c>
+      <c r="U15" t="s">
+        <v>84</v>
+      </c>
+      <c r="W15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>62</v>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>13395119263</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45932.192361111112</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" s="10">
+        <v>45983</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" t="s">
+        <v>31</v>
       </c>
       <c r="N16">
-        <f>SUM(N10:N15)</f>
-        <v>6</v>
-      </c>
-      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S16" t="s">
+        <v>85</v>
+      </c>
+      <c r="T16" t="s">
+        <v>86</v>
+      </c>
+      <c r="U16" t="s">
+        <v>87</v>
+      </c>
+      <c r="W16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>13368058793</v>
+        <v>13509471093</v>
       </c>
       <c r="B17" s="1">
-        <v>45928.938888888886</v>
+        <v>45946.459027777775</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H17" t="s">
         <v>28</v>
@@ -8231,7 +13297,7 @@
       <c r="I17" t="s">
         <v>168</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="10">
         <v>45983</v>
       </c>
       <c r="K17" s="3">
@@ -8246,49 +13312,49 @@
       <c r="N17">
         <v>1</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>32</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>33</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0</v>
       </c>
-      <c r="R17" t="s">
-        <v>82</v>
-      </c>
       <c r="S17" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="T17" t="s">
-        <v>84</v>
-      </c>
-      <c r="V17" t="s">
+        <v>91</v>
+      </c>
+      <c r="U17" t="s">
+        <v>92</v>
+      </c>
+      <c r="W17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>13395119263</v>
+        <v>13637734653</v>
       </c>
       <c r="B18" s="1">
-        <v>45932.192361111112</v>
+        <v>45962.712500000001</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="H18" t="s">
         <v>28</v>
@@ -8296,7 +13362,7 @@
       <c r="I18" t="s">
         <v>168</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="10">
         <v>45983</v>
       </c>
       <c r="K18" s="3">
@@ -8311,49 +13377,49 @@
       <c r="N18">
         <v>1</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>32</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>33</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0</v>
       </c>
-      <c r="R18" t="s">
-        <v>85</v>
-      </c>
       <c r="S18" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="T18" t="s">
-        <v>87</v>
-      </c>
-      <c r="V18" t="s">
+        <v>96</v>
+      </c>
+      <c r="U18" t="s">
+        <v>97</v>
+      </c>
+      <c r="W18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>13509471093</v>
+        <v>13638194263</v>
       </c>
       <c r="B19" s="1">
-        <v>45946.459027777775</v>
+        <v>45962.758333333331</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G19" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H19" t="s">
         <v>28</v>
@@ -8361,7 +13427,7 @@
       <c r="I19" t="s">
         <v>168</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="10">
         <v>45983</v>
       </c>
       <c r="K19" s="3">
@@ -8376,49 +13442,49 @@
       <c r="N19">
         <v>1</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>32</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>33</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0</v>
       </c>
-      <c r="R19" t="s">
-        <v>90</v>
-      </c>
       <c r="S19" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="T19" t="s">
-        <v>92</v>
-      </c>
-      <c r="V19" t="s">
+        <v>99</v>
+      </c>
+      <c r="U19" t="s">
+        <v>100</v>
+      </c>
+      <c r="W19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>13637734653</v>
+        <v>13638251133</v>
       </c>
       <c r="B20" s="1">
-        <v>45962.712500000001</v>
+        <v>45962.763888888891</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="H20" t="s">
         <v>28</v>
@@ -8426,7 +13492,7 @@
       <c r="I20" t="s">
         <v>168</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="10">
         <v>45983</v>
       </c>
       <c r="K20" s="3">
@@ -8441,49 +13507,49 @@
       <c r="N20">
         <v>1</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>32</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>33</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0</v>
       </c>
-      <c r="R20" t="s">
-        <v>95</v>
-      </c>
       <c r="S20" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="T20" t="s">
-        <v>97</v>
-      </c>
-      <c r="V20" t="s">
+        <v>104</v>
+      </c>
+      <c r="U20" t="s">
+        <v>105</v>
+      </c>
+      <c r="W20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>13638194263</v>
+        <v>13639249843</v>
       </c>
       <c r="B21" s="1">
-        <v>45962.758333333331</v>
+        <v>45962.882638888892</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s">
         <v>28</v>
@@ -8491,7 +13557,7 @@
       <c r="I21" t="s">
         <v>168</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="10">
         <v>45983</v>
       </c>
       <c r="K21" s="3">
@@ -8506,43 +13572,43 @@
       <c r="N21">
         <v>1</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>32</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>33</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0</v>
       </c>
-      <c r="R21" t="s">
-        <v>98</v>
-      </c>
       <c r="S21" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="T21" t="s">
-        <v>100</v>
-      </c>
-      <c r="V21" t="s">
+        <v>109</v>
+      </c>
+      <c r="U21" t="s">
+        <v>110</v>
+      </c>
+      <c r="W21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>13638251133</v>
+        <v>13639308643</v>
       </c>
       <c r="B22" s="1">
-        <v>45962.763888888891</v>
+        <v>45962.890277777777</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
         <v>106</v>
@@ -8556,7 +13622,7 @@
       <c r="I22" t="s">
         <v>168</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="10">
         <v>45983</v>
       </c>
       <c r="K22" s="3">
@@ -8571,43 +13637,43 @@
       <c r="N22">
         <v>1</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>32</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>33</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0</v>
       </c>
-      <c r="R22" t="s">
-        <v>103</v>
-      </c>
       <c r="S22" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="T22" t="s">
-        <v>105</v>
-      </c>
-      <c r="V22" t="s">
+        <v>112</v>
+      </c>
+      <c r="U22" t="s">
+        <v>113</v>
+      </c>
+      <c r="W22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>13639249843</v>
+        <v>13639318833</v>
       </c>
       <c r="B23" s="1">
-        <v>45962.882638888892</v>
+        <v>45962.890972222223</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F23" t="s">
         <v>53</v>
@@ -8621,7 +13687,7 @@
       <c r="I23" t="s">
         <v>168</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="10">
         <v>45983</v>
       </c>
       <c r="K23" s="3">
@@ -8636,43 +13702,43 @@
       <c r="N23">
         <v>1</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>32</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>33</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0</v>
       </c>
-      <c r="R23" t="s">
-        <v>108</v>
-      </c>
       <c r="S23" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="T23" t="s">
-        <v>110</v>
-      </c>
-      <c r="V23" t="s">
+        <v>115</v>
+      </c>
+      <c r="U23" t="s">
+        <v>116</v>
+      </c>
+      <c r="W23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>13639308643</v>
+        <v>13639633863</v>
       </c>
       <c r="B24" s="1">
-        <v>45962.890277777777</v>
+        <v>45962.933333333334</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F24" t="s">
         <v>106</v>
@@ -8686,7 +13752,7 @@
       <c r="I24" t="s">
         <v>168</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="10">
         <v>45983</v>
       </c>
       <c r="K24" s="3">
@@ -8701,43 +13767,43 @@
       <c r="N24">
         <v>1</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>32</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>33</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0</v>
       </c>
-      <c r="R24" t="s">
-        <v>111</v>
-      </c>
       <c r="S24" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="T24" t="s">
-        <v>113</v>
-      </c>
-      <c r="V24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U24" t="s">
+        <v>119</v>
+      </c>
+      <c r="W24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>13639318833</v>
+        <v>13639670103</v>
       </c>
       <c r="B25" s="1">
-        <v>45962.890972222223</v>
+        <v>45962.938194444447</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F25" t="s">
         <v>53</v>
@@ -8751,7 +13817,7 @@
       <c r="I25" t="s">
         <v>168</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="10">
         <v>45983</v>
       </c>
       <c r="K25" s="3">
@@ -8766,49 +13832,49 @@
       <c r="N25">
         <v>1</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>32</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>33</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>0</v>
       </c>
-      <c r="R25" t="s">
-        <v>114</v>
-      </c>
       <c r="S25" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="T25" t="s">
-        <v>116</v>
-      </c>
-      <c r="V25" t="s">
+        <v>121</v>
+      </c>
+      <c r="U25" t="s">
+        <v>122</v>
+      </c>
+      <c r="W25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>13639633863</v>
+        <v>13641109033</v>
       </c>
       <c r="B26" s="1">
-        <v>45962.933333333334</v>
+        <v>45963.228472222225</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="G26" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="H26" t="s">
         <v>28</v>
@@ -8816,7 +13882,7 @@
       <c r="I26" t="s">
         <v>168</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="10">
         <v>45983</v>
       </c>
       <c r="K26" s="3">
@@ -8831,49 +13897,49 @@
       <c r="N26">
         <v>1</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>32</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>33</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>0</v>
       </c>
-      <c r="R26" t="s">
-        <v>117</v>
-      </c>
       <c r="S26" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="T26" t="s">
-        <v>119</v>
-      </c>
-      <c r="V26" t="s">
+        <v>124</v>
+      </c>
+      <c r="U26" t="s">
+        <v>125</v>
+      </c>
+      <c r="W26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>13639670103</v>
+        <v>13368051093</v>
       </c>
       <c r="B27" s="1">
-        <v>45962.938194444447</v>
+        <v>45928.9375</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H27" t="s">
         <v>28</v>
@@ -8881,8 +13947,8 @@
       <c r="I27" t="s">
         <v>168</v>
       </c>
-      <c r="J27" s="2">
-        <v>45983</v>
+      <c r="J27" s="10">
+        <v>45969</v>
       </c>
       <c r="K27" s="3">
         <v>0.45833333333333331</v>
@@ -8896,49 +13962,49 @@
       <c r="N27">
         <v>1</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>32</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>33</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>0</v>
       </c>
-      <c r="R27" t="s">
-        <v>120</v>
-      </c>
       <c r="S27" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="T27" t="s">
-        <v>122</v>
-      </c>
-      <c r="V27" t="s">
+        <v>83</v>
+      </c>
+      <c r="U27" t="s">
+        <v>84</v>
+      </c>
+      <c r="W27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>13641109033</v>
+        <v>13496229853</v>
       </c>
       <c r="B28" s="1">
-        <v>45963.228472222225</v>
+        <v>45944.940972222219</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="G28" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="H28" t="s">
         <v>28</v>
@@ -8946,8 +14012,8 @@
       <c r="I28" t="s">
         <v>168</v>
       </c>
-      <c r="J28" s="2">
-        <v>45983</v>
+      <c r="J28" s="10">
+        <v>45969</v>
       </c>
       <c r="K28" s="3">
         <v>0.45833333333333331</v>
@@ -8961,61 +14027,114 @@
       <c r="N28">
         <v>1</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>33</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>0</v>
       </c>
-      <c r="R28" t="s">
-        <v>123</v>
-      </c>
       <c r="S28" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="T28" t="s">
-        <v>125</v>
-      </c>
-      <c r="V28" t="s">
+        <v>56</v>
+      </c>
+      <c r="U28" t="s">
+        <v>57</v>
+      </c>
+      <c r="W28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>62</v>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>13521023543</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45947.713888888888</v>
+      </c>
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="10">
+        <v>45969</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" t="s">
+        <v>31</v>
       </c>
       <c r="N29">
-        <f>SUM(N17:N28)</f>
-        <v>12</v>
-      </c>
-      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>33</v>
+      </c>
+      <c r="R29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S29" t="s">
+        <v>128</v>
+      </c>
+      <c r="T29" t="s">
+        <v>129</v>
+      </c>
+      <c r="U29" t="s">
+        <v>130</v>
+      </c>
+      <c r="W29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>13368051093</v>
+        <v>13574053993</v>
       </c>
       <c r="B30" s="1">
-        <v>45928.9375</v>
+        <v>45954.456250000003</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G30" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="H30" t="s">
         <v>28</v>
@@ -9023,7 +14142,7 @@
       <c r="I30" t="s">
         <v>168</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="10">
         <v>45969</v>
       </c>
       <c r="K30" s="3">
@@ -9038,43 +14157,43 @@
       <c r="N30">
         <v>1</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>32</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>33</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>0</v>
       </c>
-      <c r="R30" t="s">
-        <v>82</v>
-      </c>
       <c r="S30" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="T30" t="s">
-        <v>84</v>
-      </c>
-      <c r="V30" t="s">
+        <v>134</v>
+      </c>
+      <c r="U30" t="s">
+        <v>135</v>
+      </c>
+      <c r="W30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>13496229853</v>
+        <v>13637718443</v>
       </c>
       <c r="B31" s="1">
-        <v>45944.940972222219</v>
+        <v>45962.711111111108</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="F31" t="s">
         <v>58</v>
@@ -9088,7 +14207,7 @@
       <c r="I31" t="s">
         <v>168</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="10">
         <v>45969</v>
       </c>
       <c r="K31" s="3">
@@ -9103,49 +14222,49 @@
       <c r="N31">
         <v>1</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>32</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>33</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0</v>
       </c>
-      <c r="R31" t="s">
-        <v>55</v>
-      </c>
       <c r="S31" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="T31" t="s">
-        <v>57</v>
-      </c>
-      <c r="V31" t="s">
+        <v>139</v>
+      </c>
+      <c r="U31" t="s">
+        <v>140</v>
+      </c>
+      <c r="W31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>13521023543</v>
+        <v>13637826033</v>
       </c>
       <c r="B32" s="1">
-        <v>45947.713888888888</v>
+        <v>45962.722222222219</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="F32" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="G32" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="H32" t="s">
         <v>28</v>
@@ -9153,7 +14272,7 @@
       <c r="I32" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="10">
         <v>45969</v>
       </c>
       <c r="K32" s="3">
@@ -9168,49 +14287,49 @@
       <c r="N32">
         <v>1</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>32</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>33</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>0</v>
       </c>
-      <c r="R32" t="s">
-        <v>128</v>
-      </c>
       <c r="S32" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="T32" t="s">
-        <v>130</v>
-      </c>
-      <c r="V32" t="s">
+        <v>142</v>
+      </c>
+      <c r="U32" t="s">
+        <v>143</v>
+      </c>
+      <c r="W32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>13574053993</v>
+        <v>13637993093</v>
       </c>
       <c r="B33" s="1">
-        <v>45954.456250000003</v>
+        <v>45962.739583333336</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F33" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="H33" t="s">
         <v>28</v>
@@ -9218,7 +14337,7 @@
       <c r="I33" t="s">
         <v>168</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="10">
         <v>45969</v>
       </c>
       <c r="K33" s="3">
@@ -9233,49 +14352,49 @@
       <c r="N33">
         <v>1</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>32</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>33</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>0</v>
       </c>
-      <c r="R33" t="s">
-        <v>133</v>
-      </c>
       <c r="S33" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="T33" t="s">
-        <v>135</v>
-      </c>
-      <c r="V33" t="s">
+        <v>145</v>
+      </c>
+      <c r="U33" t="s">
+        <v>146</v>
+      </c>
+      <c r="W33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>13637718443</v>
+        <v>13638123313</v>
       </c>
       <c r="B34" s="1">
-        <v>45962.711111111108</v>
+        <v>45962.752083333333</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="G34" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="H34" t="s">
         <v>28</v>
@@ -9283,7 +14402,7 @@
       <c r="I34" t="s">
         <v>168</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="10">
         <v>45969</v>
       </c>
       <c r="K34" s="3">
@@ -9298,49 +14417,49 @@
       <c r="N34">
         <v>1</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>32</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>33</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0</v>
       </c>
-      <c r="R34" t="s">
-        <v>138</v>
-      </c>
       <c r="S34" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="T34" t="s">
-        <v>140</v>
-      </c>
-      <c r="V34" t="s">
+        <v>148</v>
+      </c>
+      <c r="U34" t="s">
+        <v>149</v>
+      </c>
+      <c r="W34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>13637826033</v>
+        <v>13638146423</v>
       </c>
       <c r="B35" s="1">
-        <v>45962.722222222219</v>
+        <v>45962.754166666666</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="G35" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="H35" t="s">
         <v>28</v>
@@ -9348,7 +14467,7 @@
       <c r="I35" t="s">
         <v>168</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="10">
         <v>45969</v>
       </c>
       <c r="K35" s="3">
@@ -9363,43 +14482,43 @@
       <c r="N35">
         <v>1</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>32</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>33</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>0</v>
       </c>
-      <c r="R35" t="s">
-        <v>141</v>
-      </c>
       <c r="S35" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="T35" t="s">
-        <v>143</v>
-      </c>
-      <c r="V35" t="s">
+        <v>99</v>
+      </c>
+      <c r="U35" t="s">
+        <v>100</v>
+      </c>
+      <c r="W35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>13637993093</v>
+        <v>13638148673</v>
       </c>
       <c r="B36" s="1">
-        <v>45962.739583333336</v>
+        <v>45962.754166666666</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F36" t="s">
         <v>93</v>
@@ -9413,7 +14532,7 @@
       <c r="I36" t="s">
         <v>168</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="10">
         <v>45969</v>
       </c>
       <c r="K36" s="3">
@@ -9428,49 +14547,49 @@
       <c r="N36">
         <v>1</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>32</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>33</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>0</v>
       </c>
-      <c r="R36" t="s">
-        <v>144</v>
-      </c>
       <c r="S36" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="T36" t="s">
-        <v>146</v>
-      </c>
-      <c r="V36" t="s">
+        <v>153</v>
+      </c>
+      <c r="U36" t="s">
+        <v>154</v>
+      </c>
+      <c r="W36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>13638123313</v>
+        <v>13638316163</v>
       </c>
       <c r="B37" s="1">
-        <v>45962.752083333333</v>
+        <v>45962.770138888889</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F37" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G37" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H37" t="s">
         <v>28</v>
@@ -9478,7 +14597,7 @@
       <c r="I37" t="s">
         <v>168</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="10">
         <v>45969</v>
       </c>
       <c r="K37" s="3">
@@ -9493,49 +14612,49 @@
       <c r="N37">
         <v>1</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>32</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>33</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>0</v>
       </c>
-      <c r="R37" t="s">
-        <v>147</v>
-      </c>
       <c r="S37" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="T37" t="s">
-        <v>149</v>
-      </c>
-      <c r="V37" t="s">
+        <v>156</v>
+      </c>
+      <c r="U37" t="s">
+        <v>157</v>
+      </c>
+      <c r="W37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>13638146423</v>
+        <v>13638328653</v>
       </c>
       <c r="B38" s="1">
-        <v>45962.754166666666</v>
+        <v>45962.771527777775</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="F38" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G38" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H38" t="s">
         <v>28</v>
@@ -9543,7 +14662,7 @@
       <c r="I38" t="s">
         <v>168</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="10">
         <v>45969</v>
       </c>
       <c r="K38" s="3">
@@ -9558,43 +14677,43 @@
       <c r="N38">
         <v>1</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>32</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>33</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>0</v>
       </c>
-      <c r="R38" t="s">
-        <v>98</v>
-      </c>
       <c r="S38" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T38" t="s">
-        <v>100</v>
-      </c>
-      <c r="V38" t="s">
+        <v>161</v>
+      </c>
+      <c r="U38" t="s">
+        <v>162</v>
+      </c>
+      <c r="W38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>13638148673</v>
+        <v>13638353133</v>
       </c>
       <c r="B39" s="1">
-        <v>45962.754166666666</v>
+        <v>45962.774305555555</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E39" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F39" t="s">
         <v>93</v>
@@ -9608,7 +14727,7 @@
       <c r="I39" t="s">
         <v>168</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="10">
         <v>45969</v>
       </c>
       <c r="K39" s="3">
@@ -9623,49 +14742,49 @@
       <c r="N39">
         <v>1</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>32</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>33</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>0</v>
       </c>
-      <c r="R39" t="s">
-        <v>152</v>
-      </c>
       <c r="S39" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="T39" t="s">
-        <v>154</v>
-      </c>
-      <c r="V39" t="s">
+        <v>164</v>
+      </c>
+      <c r="U39" t="s">
+        <v>165</v>
+      </c>
+      <c r="W39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>13638316163</v>
+        <v>13639229663</v>
       </c>
       <c r="B40" s="1">
-        <v>45962.770138888889</v>
+        <v>45962.880555555559</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="F40" t="s">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="G40" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="H40" t="s">
         <v>28</v>
@@ -9673,7 +14792,7 @@
       <c r="I40" t="s">
         <v>168</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="10">
         <v>45969</v>
       </c>
       <c r="K40" s="3">
@@ -9688,49 +14807,49 @@
       <c r="N40">
         <v>1</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>32</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>33</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>0</v>
       </c>
-      <c r="R40" t="s">
-        <v>155</v>
-      </c>
       <c r="S40" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="T40" t="s">
-        <v>157</v>
-      </c>
-      <c r="V40" t="s">
+        <v>109</v>
+      </c>
+      <c r="U40" t="s">
+        <v>110</v>
+      </c>
+      <c r="W40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>13638328653</v>
+        <v>13639315853</v>
       </c>
       <c r="B41" s="1">
-        <v>45962.771527777775</v>
+        <v>45962.890972222223</v>
       </c>
       <c r="C41" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="D41" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="E41" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="F41" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="H41" t="s">
         <v>28</v>
@@ -9738,7 +14857,7 @@
       <c r="I41" t="s">
         <v>168</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="10">
         <v>45969</v>
       </c>
       <c r="K41" s="3">
@@ -9753,227 +14872,463 @@
       <c r="N41">
         <v>1</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>32</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>33</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>0</v>
       </c>
-      <c r="R41" t="s">
-        <v>160</v>
-      </c>
       <c r="S41" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="T41" t="s">
+        <v>115</v>
+      </c>
+      <c r="U41" t="s">
+        <v>116</v>
+      </c>
+      <c r="W41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B618DD-3771-47FD-998D-8FCE79BDF52C}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="8">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6FF2F4-F51F-47E1-BB53-9A69FAC3EDE5}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="8">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE33B79-F08D-4191-8ACD-8DCCFE79DAB4}">
+  <dimension ref="A1:A33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="V41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>13638353133</v>
-      </c>
-      <c r="B42" s="1">
-        <v>45962.774305555555</v>
-      </c>
-      <c r="C42" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" t="s">
-        <v>164</v>
-      </c>
-      <c r="E42" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="F42" t="s">
-        <v>93</v>
-      </c>
-      <c r="G42" t="s">
-        <v>94</v>
-      </c>
-      <c r="H42" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" t="s">
-        <v>168</v>
-      </c>
-      <c r="J42" s="2">
-        <v>45969</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="L42" t="s">
-        <v>30</v>
-      </c>
-      <c r="M42" t="s">
-        <v>31</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42" t="s">
-        <v>32</v>
-      </c>
-      <c r="P42" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42" t="s">
-        <v>163</v>
-      </c>
-      <c r="S42" t="s">
-        <v>164</v>
-      </c>
-      <c r="T42" t="s">
-        <v>165</v>
-      </c>
-      <c r="V42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>13639229663</v>
-      </c>
-      <c r="B43" s="1">
-        <v>45962.880555555559</v>
-      </c>
-      <c r="C43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" t="s">
-        <v>110</v>
-      </c>
-      <c r="F43" t="s">
-        <v>53</v>
-      </c>
-      <c r="G43" t="s">
-        <v>54</v>
-      </c>
-      <c r="H43" t="s">
-        <v>28</v>
-      </c>
-      <c r="I43" t="s">
-        <v>168</v>
-      </c>
-      <c r="J43" s="2">
-        <v>45969</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="L43" t="s">
-        <v>30</v>
-      </c>
-      <c r="M43" t="s">
-        <v>31</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P43" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43" t="s">
-        <v>108</v>
-      </c>
-      <c r="S43" t="s">
-        <v>109</v>
-      </c>
-      <c r="T43" t="s">
-        <v>110</v>
-      </c>
-      <c r="V43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>13639315853</v>
-      </c>
-      <c r="B44" s="1">
-        <v>45962.890972222223</v>
-      </c>
-      <c r="C44" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" t="s">
-        <v>54</v>
-      </c>
-      <c r="H44" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" t="s">
-        <v>168</v>
-      </c>
-      <c r="J44" s="2">
-        <v>45969</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="L44" t="s">
-        <v>30</v>
-      </c>
-      <c r="M44" t="s">
-        <v>31</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P44" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44" t="s">
-        <v>114</v>
-      </c>
-      <c r="S44" t="s">
-        <v>115</v>
-      </c>
-      <c r="T44" t="s">
-        <v>116</v>
-      </c>
-      <c r="V44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="N45">
-        <f>SUM(N30:N44)</f>
-        <v>15</v>
       </c>
     </row>
   </sheetData>
